--- a/biology/Zoologie/Caimaninae/Caimaninae.xlsx
+++ b/biology/Zoologie/Caimaninae/Caimaninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caïmans, Caïmaninés
-Les Caimaninae (Caïmans) sont une sous-famille de crocodiliens de la famille des Alligatoridés. Proches des alligators, mais ne présentant pas de septum osseux entre les narines, les caïmans sont tous originaires d'Amérique centrale et d'Amérique du Sud. Ce terme est probablement d'origine caribe[1].
+Les Caimaninae (Caïmans) sont une sous-famille de crocodiliens de la famille des Alligatoridés. Proches des alligators, mais ne présentant pas de septum osseux entre les narines, les caïmans sont tous originaires d'Amérique centrale et d'Amérique du Sud. Ce terme est probablement d'origine caribe.
 </t>
         </is>
       </c>
@@ -512,18 +524,20 @@
           <t>Liste des genres et espèces actuelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Genre Paleosuchus
-le Caïman de Schneider ou Caïman à front lisse ou Caïman hérissé - Paleosuchus trigonatus[2]
-le Caïman nain ou Caïman nain de Cuvier - Paleosuchus palpebrosus[2],[3]
+le Caïman de Schneider ou Caïman à front lisse ou Caïman hérissé - Paleosuchus trigonatus
+le Caïman nain ou Caïman nain de Cuvier - Paleosuchus palpebrosus,
 Clade Jacarea
 Genre  Caiman
-le Caïman à lunettes - Caiman crocodilus[4],[2]
-le Caïman à museau large - Caiman latirostris[2]
+le Caïman à lunettes - Caiman crocodilus,
+le Caïman à museau large - Caiman latirostris
 le Caïman yacare ou Jacara - Caiman yacare
 Genre Melanosuchus
-le Caïman noir - Melanosuchus niger[2]</t>
+le Caïman noir - Melanosuchus niger</t>
         </is>
       </c>
     </row>
@@ -551,7 +565,9 @@
           <t>Liste des genres fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>†Centenariosuchus
 †Culebrasuchus
@@ -589,9 +605,11 @@
           <t>Phylogenie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme d'après Brochu (2011)[5] et Hastings et al. (2013)[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme d'après Brochu (2011) et Hastings et al. (2013).
 </t>
         </is>
       </c>
